--- a/kn/Data/Book1.xlsx
+++ b/kn/Data/Book1.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOWTHAM\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,15 +20,271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>rocky</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+  <si>
+    <t>YutoHORIGOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPN, </t>
+  </si>
+  <si>
+    <t>Skateboarding</t>
+  </si>
+  <si>
+    <t>RayssaLEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRA, </t>
+  </si>
+  <si>
+    <t>KatieLEDECKY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, </t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>KristofKristof Milak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUN, </t>
+  </si>
+  <si>
+    <t>KayleeMCKEOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS, </t>
+  </si>
+  <si>
+    <t>CaelebDRESSEL</t>
+  </si>
+  <si>
+    <t>FloraDUFFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BER, </t>
+  </si>
+  <si>
+    <t>Triathlon</t>
+  </si>
+  <si>
+    <t>NeerajCHOPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND, </t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>ArmandDUPLANTIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE, </t>
+  </si>
+  <si>
+    <t>Shelly-AnnFRASER-PRYCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAM, </t>
+  </si>
+  <si>
+    <t>YaroslavaMAHUCHIKH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKR, </t>
+  </si>
+  <si>
+    <t>Winfred MutileYAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRN, </t>
+  </si>
+  <si>
+    <t>YulimarROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEN, </t>
+  </si>
+  <si>
+    <t>Carlos EdrielYULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHI, </t>
+  </si>
+  <si>
+    <t>Artistic Gymnastics</t>
+  </si>
+  <si>
+    <t>Pusarla VenkataSINDHU</t>
+  </si>
+  <si>
+    <t>Badminton</t>
+  </si>
+  <si>
+    <t>AlaaMASO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SerenaWILLIAMS</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>ElinRUBENSSON</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>CarissaMOORE</t>
+  </si>
+  <si>
+    <t>Surfing</t>
+  </si>
+  <si>
+    <t>FilipeTOLEDO</t>
+  </si>
+  <si>
+    <t>TomoaNARASAKI</t>
+  </si>
+  <si>
+    <t>Sport Climbing</t>
+  </si>
+  <si>
+    <t>NataliaGROSSMAN</t>
+  </si>
+  <si>
+    <t>TadejPOGACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO, </t>
+  </si>
+  <si>
+    <t>Cycling Road</t>
+  </si>
+  <si>
+    <t>EliudKIPCHOGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEN, </t>
+  </si>
+  <si>
+    <t>YUTO-HORIGOME</t>
+  </si>
+  <si>
+    <t>SKATEBOARDING</t>
+  </si>
+  <si>
+    <t>RAYSSA-LEAL</t>
+  </si>
+  <si>
+    <t>KATIE-LEDECKY</t>
+  </si>
+  <si>
+    <t>SWIMMING</t>
+  </si>
+  <si>
+    <t>KRISTOF-KRISTOF MILAK</t>
+  </si>
+  <si>
+    <t>KAYLEE-MCKEOWN</t>
+  </si>
+  <si>
+    <t>CAELEB-DRESSEL</t>
+  </si>
+  <si>
+    <t>FLORA-DUFFY</t>
+  </si>
+  <si>
+    <t>TRIATHLON</t>
+  </si>
+  <si>
+    <t>NEERAJ-CHOPRA</t>
+  </si>
+  <si>
+    <t>ATHLETICS</t>
+  </si>
+  <si>
+    <t>ARMAND-DUPLANTIS</t>
+  </si>
+  <si>
+    <t>SHELLY-ANN-FRASER-PRYCE</t>
+  </si>
+  <si>
+    <t>YAROSLAVA-MAHUCHIKH</t>
+  </si>
+  <si>
+    <t>WINFRED MUTILE-YAVI</t>
+  </si>
+  <si>
+    <t>YULIMAR-ROJAS</t>
+  </si>
+  <si>
+    <t>CARLOS EDRIEL-YULO</t>
+  </si>
+  <si>
+    <t>ARTISTIC GYMNASTICS</t>
+  </si>
+  <si>
+    <t>PUSARLA VENKATA-SINDHU</t>
+  </si>
+  <si>
+    <t>BADMINTON</t>
+  </si>
+  <si>
+    <t>ALAA-MASO</t>
+  </si>
+  <si>
+    <t>SERENA-WILLIAMS</t>
+  </si>
+  <si>
+    <t>TENNIS</t>
+  </si>
+  <si>
+    <t>ELIN-RUBENSSON</t>
+  </si>
+  <si>
+    <t>FOOTBALL</t>
+  </si>
+  <si>
+    <t>CARISSA-MOORE</t>
+  </si>
+  <si>
+    <t>SURFING</t>
+  </si>
+  <si>
+    <t>FILIPE-TOLEDO</t>
+  </si>
+  <si>
+    <t>TOMOA-NARASAKI</t>
+  </si>
+  <si>
+    <t>SPORT CLIMBING</t>
+  </si>
+  <si>
+    <t>NATALIA-GROSSMAN</t>
+  </si>
+  <si>
+    <t>TADEJ-POGACAR</t>
+  </si>
+  <si>
+    <t>CYCLING ROAD</t>
+  </si>
+  <si>
+    <t>ELIUD-KIPCHOGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,8 +314,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,20 +597,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" style="1" width="9.140625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>143</v>
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
